--- a/Documentation/Assset list.xlsx
+++ b/Documentation/Assset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamen\Git repos\Ana\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9B6E79-0E90-4D32-AE3F-FA78AF543365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F0308-9AF1-4A68-B11A-30C118F49DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3597E37-93DD-4AB3-B33B-639F315517BC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>SFX</t>
   </si>
@@ -89,8 +89,230 @@
     <t>Menu option highlight</t>
   </si>
   <si>
+    <t>Menu option select</t>
+  </si>
+  <si>
+    <t>Whenever a new option is highlighted in title, in-game, pause menu</t>
+  </si>
+  <si>
+    <t>Whenever an option is clicked in title, in-game, or pause menu</t>
+  </si>
+  <si>
+    <t>Ambience</t>
+  </si>
+  <si>
+    <t>Level ambience</t>
+  </si>
+  <si>
+    <t>Ambient sounds of wind, posssibly a storm if I can easily create that visual efffect</t>
+  </si>
+  <si>
+    <t>Tower ambience</t>
+  </si>
+  <si>
+    <t>From the player's tower</t>
+  </si>
+  <si>
+    <t>Futuristing machinery sounds</t>
+  </si>
+  <si>
+    <t>Tower placed</t>
+  </si>
+  <si>
+    <t>When the player places any unit</t>
+  </si>
+  <si>
+    <t>Sounds of futuristic machine starting up, with a thud (as if it was droppped) to match the smoke efffect created when placing it</t>
+  </si>
+  <si>
+    <t>Tower sold</t>
+  </si>
+  <si>
+    <t>When the player dispels a placed unit</t>
+  </si>
+  <si>
+    <t>Tower idle</t>
+  </si>
+  <si>
+    <t>From any placed unit</t>
+  </si>
+  <si>
+    <t>Machines turning offf</t>
+  </si>
+  <si>
+    <t>Cannnon fire</t>
+  </si>
+  <si>
+    <t>Like a pew sound, but with some low end to sound "grittty"</t>
+  </si>
+  <si>
+    <t>1 second</t>
+  </si>
+  <si>
+    <t>&lt; 1 minute</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>1-2 minutes</t>
+  </si>
+  <si>
+    <t>Cannnon hit</t>
+  </si>
+  <si>
+    <t>When a cannnon shot hits an enemy</t>
+  </si>
+  <si>
+    <t>As though something solid was throw at metal. Not tooo tinnny (not tooo much high end?)</t>
+  </si>
+  <si>
+    <t>Rocket fire</t>
+  </si>
+  <si>
+    <t>When a rocket platform fires</t>
+  </si>
+  <si>
+    <t>Rumble of rocket flying (no explosion)</t>
+  </si>
+  <si>
+    <t>2 seconds</t>
+  </si>
+  <si>
+    <t>Rocket hit</t>
+  </si>
+  <si>
+    <t>Smalll explosion. This is willl stop the rocket flying sound</t>
+  </si>
+  <si>
+    <t>Plasma shot</t>
+  </si>
+  <si>
+    <t>When a plasma lance fires</t>
+  </si>
+  <si>
+    <t>Gunshot</t>
+  </si>
+  <si>
+    <t>Slowdown</t>
+  </si>
+  <si>
+    <t>From an enemy which is slowed</t>
+  </si>
+  <si>
+    <t>A buzzzy hum that starts with a pitch-droppping efffect</t>
+  </si>
+  <si>
+    <t>&lt; 1 second intro, 1 second looop</t>
+  </si>
+  <si>
+    <t>Misssile barrrage</t>
+  </si>
+  <si>
+    <t>For each misssile from a misssile barrrage</t>
+  </si>
+  <si>
+    <t>Whistling sound of misssiles firing</t>
+  </si>
+  <si>
+    <t>Misssile sepppuku</t>
+  </si>
+  <si>
+    <t>When a rocket or misssile hits an enemy</t>
+  </si>
+  <si>
+    <t>When a misssile barrrage self-destructs</t>
+  </si>
+  <si>
+    <t>Explosion acccompanying machines turning offf</t>
+  </si>
+  <si>
+    <t>Energy gain</t>
+  </si>
+  <si>
+    <t>When an energy pylon gains energy</t>
+  </si>
+  <si>
+    <t>Bzzzt</t>
+  </si>
+  <si>
+    <t>Energy tower</t>
+  </si>
+  <si>
+    <t>When an energy pylon gains energy, when an enemy is destroyed, and when a tower is sold</t>
+  </si>
+  <si>
+    <t>Higher ding, instance-specific parameter to make it louder for actions with more energy gain</t>
+  </si>
+  <si>
+    <t>Tower upgrade</t>
+  </si>
+  <si>
+    <t>Very subtle efffect that can hopefullly be noticed when it starts and stops only; a buzzz/hum of machines runnning. Parametrised to rise in pitch for Tier 2 or 3 towers</t>
+  </si>
+  <si>
+    <t>When a tower is upgraded</t>
+  </si>
+  <si>
+    <t>1-2 seconds</t>
+  </si>
+  <si>
+    <t>Tower destroyed</t>
+  </si>
+  <si>
+    <t>When an enemy destroys a tower</t>
+  </si>
+  <si>
+    <t>Another machine startup sound to acccompany "Tower idle" changing</t>
+  </si>
+  <si>
+    <t>Similar to "Misssile sepppuku", but machines turn offf more sudddenly</t>
+  </si>
+  <si>
+    <t>When an asssault cannnon fires, or when an enemy shooots at a tower</t>
+  </si>
+  <si>
+    <t>Base damaged</t>
+  </si>
+  <si>
+    <t>When an enemy is at the player base</t>
+  </si>
+  <si>
+    <t>A charge sound (low buzzz) rising in pitch, ending in a louder "pew" sound</t>
+  </si>
+  <si>
+    <t>Hoverbugggy</t>
+  </si>
+  <si>
+    <t>From hoverbugggies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low whirrring hum </t>
+  </si>
+  <si>
+    <t>1 second looop</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Fromt hoverbossses and hovertanks</t>
+  </si>
+  <si>
+    <t>Tank treads, which I think sound like mechanical sounds with a repeating clank (I'lll have to check)</t>
+  </si>
+  <si>
+    <t>Rotors</t>
+  </si>
+  <si>
+    <t>From hovercopters</t>
+  </si>
+  <si>
+    <t>Like a fan. Maybe even a laptop fan</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Soft ding. Nothing intrusive, since the player willl hear it a </t>
+      <t xml:space="preserve">Soft click. Nothing intrusive, since the player willl hear it a </t>
     </r>
     <r>
       <rPr>
@@ -115,229 +337,16 @@
     </r>
   </si>
   <si>
-    <t>Menu option select</t>
-  </si>
-  <si>
-    <t>Whenever a new option is highlighted in title, in-game, pause menu</t>
-  </si>
-  <si>
-    <t>Whenever an option is clicked in title, in-game, or pause menu</t>
-  </si>
-  <si>
-    <t>Basic click. Slightly more noticeable; this signifies something important happpened in-game.</t>
-  </si>
-  <si>
-    <t>Ambience</t>
-  </si>
-  <si>
-    <t>Level ambience</t>
-  </si>
-  <si>
-    <t>Ambient sounds of wind, posssibly a storm if I can easily create that visual efffect</t>
-  </si>
-  <si>
-    <t>Tower ambience</t>
-  </si>
-  <si>
-    <t>From the player's tower</t>
-  </si>
-  <si>
-    <t>Futuristing machinery sounds</t>
-  </si>
-  <si>
-    <t>Tower placed</t>
-  </si>
-  <si>
-    <t>When the player places any unit</t>
-  </si>
-  <si>
-    <t>Sounds of futuristic machine starting up, with a thud (as if it was droppped) to match the smoke efffect created when placing it</t>
-  </si>
-  <si>
-    <t>Tower sold</t>
-  </si>
-  <si>
-    <t>When the player dispels a placed unit</t>
-  </si>
-  <si>
-    <t>Tower idle</t>
-  </si>
-  <si>
-    <t>From any placed unit</t>
-  </si>
-  <si>
-    <t>Machines turning offf</t>
-  </si>
-  <si>
-    <t>Cannnon fire</t>
-  </si>
-  <si>
-    <t>Like a pew sound, but with some low end to sound "grittty"</t>
-  </si>
-  <si>
-    <t>1 second</t>
-  </si>
-  <si>
-    <t>&lt; 1 minute</t>
-  </si>
-  <si>
-    <t>1 minute</t>
-  </si>
-  <si>
-    <t>1-2 minutes</t>
-  </si>
-  <si>
-    <t>Cannnon hit</t>
-  </si>
-  <si>
-    <t>When a cannnon shot hits an enemy</t>
-  </si>
-  <si>
-    <t>As though something solid was throw at metal. Not tooo tinnny (not tooo much high end?)</t>
-  </si>
-  <si>
-    <t>Rocket fire</t>
-  </si>
-  <si>
-    <t>When a rocket platform fires</t>
-  </si>
-  <si>
-    <t>Rumble of rocket flying (no explosion)</t>
-  </si>
-  <si>
-    <t>2 seconds</t>
-  </si>
-  <si>
-    <t>Rocket hit</t>
-  </si>
-  <si>
-    <t>Smalll explosion. This is willl stop the rocket flying sound</t>
-  </si>
-  <si>
-    <t>Plasma shot</t>
-  </si>
-  <si>
-    <t>When a plasma lance fires</t>
-  </si>
-  <si>
-    <t>Gunshot</t>
-  </si>
-  <si>
-    <t>Slowdown</t>
-  </si>
-  <si>
-    <t>From an enemy which is slowed</t>
-  </si>
-  <si>
-    <t>A buzzzy hum that starts with a pitch-droppping efffect</t>
-  </si>
-  <si>
-    <t>&lt; 1 second intro, 1 second looop</t>
-  </si>
-  <si>
-    <t>Misssile barrrage</t>
-  </si>
-  <si>
-    <t>For each misssile from a misssile barrrage</t>
-  </si>
-  <si>
-    <t>Whistling sound of misssiles firing</t>
-  </si>
-  <si>
-    <t>Misssile sepppuku</t>
-  </si>
-  <si>
-    <t>When a rocket or misssile hits an enemy</t>
-  </si>
-  <si>
-    <t>When a misssile barrrage self-destructs</t>
-  </si>
-  <si>
-    <t>Explosion acccompanying machines turning offf</t>
-  </si>
-  <si>
-    <t>Energy gain</t>
-  </si>
-  <si>
-    <t>When an energy pylon gains energy</t>
-  </si>
-  <si>
-    <t>Bzzzt</t>
-  </si>
-  <si>
-    <t>Energy tower</t>
-  </si>
-  <si>
-    <t>When an energy pylon gains energy, when an enemy is destroyed, and when a tower is sold</t>
-  </si>
-  <si>
-    <t>Higher ding, instance-specific parameter to make it louder for actions with more energy gain</t>
-  </si>
-  <si>
-    <t>Tower upgrade</t>
-  </si>
-  <si>
-    <t>Very subtle efffect that can hopefullly be noticed when it starts and stops only; a buzzz/hum of machines runnning. Parametrised to rise in pitch for Tier 2 or 3 towers</t>
-  </si>
-  <si>
-    <t>When a tower is upgraded</t>
-  </si>
-  <si>
-    <t>1-2 seconds</t>
-  </si>
-  <si>
-    <t>Tower destroyed</t>
-  </si>
-  <si>
-    <t>When an enemy destroys a tower</t>
-  </si>
-  <si>
-    <t>Another machine startup sound to acccompany "Tower idle" changing</t>
-  </si>
-  <si>
-    <t>Similar to "Misssile sepppuku", but machines turn offf more sudddenly</t>
-  </si>
-  <si>
-    <t>When an asssault cannnon fires, or when an enemy shooots at a tower</t>
-  </si>
-  <si>
-    <t>Base damaged</t>
-  </si>
-  <si>
-    <t>When an enemy is at the player base</t>
-  </si>
-  <si>
-    <t>A charge sound (low buzzz) rising in pitch, ending in a louder "pew" sound</t>
-  </si>
-  <si>
-    <t>Hoverbugggy</t>
-  </si>
-  <si>
-    <t>From hoverbugggies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low whirrring hum </t>
-  </si>
-  <si>
-    <t>1 second looop</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Fromt hoverbossses and hovertanks</t>
-  </si>
-  <si>
-    <t>Tank treads, which I think sound like mechanical sounds with a repeating clank (I'lll have to check)</t>
-  </si>
-  <si>
-    <t>Rotors</t>
-  </si>
-  <si>
-    <t>From hovercopters</t>
-  </si>
-  <si>
-    <t>Like a fan. Maybe even a laptop fan</t>
+    <t>A metalllic clink. Slightly more noticeable; this signifies something important happpened in-game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger </t>
+  </si>
+  <si>
+    <t>When the nearest enemy is close</t>
+  </si>
+  <si>
+    <t>A beeeping siren sound, automated (in volume) over distance of nearest enemy</t>
   </si>
 </sst>
 </file>
@@ -720,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448648D0-165F-4848-B471-17FE24A35A41}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -795,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -814,10 +823,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -825,13 +834,13 @@
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -839,7 +848,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -850,72 +859,72 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -923,35 +932,35 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
@@ -959,198 +968,212 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>87</v>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1181,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Assset list.xlsx
+++ b/Documentation/Assset list.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamen\Git repos\Ana\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F0308-9AF1-4A68-B11A-30C118F49DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBBFA4-B462-4F61-B9A5-93F3D39BFAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3597E37-93DD-4AB3-B33B-639F315517BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assset list" sheetId="1" r:id="rId1"/>
+    <sheet name="Sound credits" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes to self" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
-  <si>
-    <t>SFX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
   <si>
     <t>Music</t>
   </si>
@@ -348,12 +347,147 @@
   <si>
     <t>A beeeping siren sound, automated (in volume) over distance of nearest enemy</t>
   </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>Source filenames</t>
+  </si>
+  <si>
+    <t>Original filename</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>369549__johnsonbrandediting__finger-snaps.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/JohnsonBrandEditing/sounds/369549/</t>
+  </si>
+  <si>
+    <t>Snaps.wav</t>
+  </si>
+  <si>
+    <t>Click1.wav</t>
+  </si>
+  <si>
+    <t>192271__lebaston100__click.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/lebaston100/sounds/192271/</t>
+  </si>
+  <si>
+    <t>Rainining.wav</t>
+  </si>
+  <si>
+    <t>217236__roofusj__steady-rain-in-the-city.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/roofusj/sounds/217236/</t>
+  </si>
+  <si>
+    <t>In the works</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/360328/</t>
+  </si>
+  <si>
+    <t>360328__inspectorj__thunder-very-close-rain-a.wav</t>
+  </si>
+  <si>
+    <t>Th-f-thunder.wav</t>
+  </si>
+  <si>
+    <t>Because I guesss this one Excel file is my be-alll, end-alll document now</t>
+  </si>
+  <si>
+    <t>Here's a list of prefabs on which I rememember turning offf AudioSources</t>
+  </si>
+  <si>
+    <t>Everything in "Towers", 'cept Ghosts</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Callled by the lightning object</t>
+  </si>
+  <si>
+    <t>Realistic thunder</t>
+  </si>
+  <si>
+    <t>2-4 seconds, multiple</t>
+  </si>
+  <si>
+    <t>Thunder1.wav</t>
+  </si>
+  <si>
+    <t>Rain, rain.wav</t>
+  </si>
+  <si>
+    <t>Note: "Filename" is a file in "Crafted Sounds". "Source filenames" are in "Obtained Sounds"</t>
+  </si>
+  <si>
+    <t>For any back buttton, maybe</t>
+  </si>
+  <si>
+    <t>Not sure yet…</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Menu "back" select</t>
+  </si>
+  <si>
+    <t>Start wave</t>
+  </si>
+  <si>
+    <t>Clicking the Start Wave buttton, maybe</t>
+  </si>
+  <si>
+    <t>I'm considering giving them unique sounds, but only because I just discovered the</t>
+  </si>
+  <si>
+    <t>game originallly had unique sounds for them. (I hadn't listened to the audio until now.)</t>
+  </si>
+  <si>
+    <t>In consideration</t>
+  </si>
+  <si>
+    <t>Tooo loud. Fix it you dork.</t>
+  </si>
+  <si>
+    <t>Mouseover click.wav</t>
+  </si>
+  <si>
+    <t>From UI/HUD:</t>
+  </si>
+  <si>
+    <t>TowerBuildMenu</t>
+  </si>
+  <si>
+    <t>Build Menu</t>
+  </si>
+  <si>
+    <t>PauseMenu</t>
+  </si>
+  <si>
+    <t>←space why lah</t>
+  </si>
+  <si>
+    <t>TowerControlllerUI</t>
+  </si>
+  <si>
+    <t>Tooo close to raindrop impacts. How do we rid ourselves of the pittter-pattter?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +511,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,16 +552,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,6 +595,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,461 +898,713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448648D0-165F-4848-B471-17FE24A35A41}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="19.21875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A12:G12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DCF25-629D-4A5D-9E8D-68D1CCC55F17}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2698F854-4098-4A8D-A11D-0BC1B6CA4315}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Assset list.xlsx
+++ b/Documentation/Assset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamen\Git repos\Ana\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBBFA4-B462-4F61-B9A5-93F3D39BFAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661484E6-A427-46A8-B2AA-0BC90AA3EDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3597E37-93DD-4AB3-B33B-639F315517BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="221">
   <si>
     <t>Music</t>
   </si>
@@ -100,18 +100,6 @@
     <t>Ambience</t>
   </si>
   <si>
-    <t>Level ambience</t>
-  </si>
-  <si>
-    <t>Ambient sounds of wind, posssibly a storm if I can easily create that visual efffect</t>
-  </si>
-  <si>
-    <t>Tower ambience</t>
-  </si>
-  <si>
-    <t>From the player's tower</t>
-  </si>
-  <si>
     <t>Futuristing machinery sounds</t>
   </si>
   <si>
@@ -151,27 +139,12 @@
     <t>&lt; 1 minute</t>
   </si>
   <si>
-    <t>1 minute</t>
-  </si>
-  <si>
     <t>1-2 minutes</t>
   </si>
   <si>
-    <t>Cannnon hit</t>
-  </si>
-  <si>
-    <t>When a cannnon shot hits an enemy</t>
-  </si>
-  <si>
-    <t>As though something solid was throw at metal. Not tooo tinnny (not tooo much high end?)</t>
-  </si>
-  <si>
     <t>Rocket fire</t>
   </si>
   <si>
-    <t>When a rocket platform fires</t>
-  </si>
-  <si>
     <t>Rumble of rocket flying (no explosion)</t>
   </si>
   <si>
@@ -181,18 +154,12 @@
     <t>Rocket hit</t>
   </si>
   <si>
-    <t>Smalll explosion. This is willl stop the rocket flying sound</t>
-  </si>
-  <si>
     <t>Plasma shot</t>
   </si>
   <si>
     <t>When a plasma lance fires</t>
   </si>
   <si>
-    <t>Gunshot</t>
-  </si>
-  <si>
     <t>Slowdown</t>
   </si>
   <si>
@@ -205,9 +172,6 @@
     <t>&lt; 1 second intro, 1 second looop</t>
   </si>
   <si>
-    <t>Misssile barrrage</t>
-  </si>
-  <si>
     <t>For each misssile from a misssile barrrage</t>
   </si>
   <si>
@@ -277,9 +241,6 @@
     <t>When an enemy is at the player base</t>
   </si>
   <si>
-    <t>A charge sound (low buzzz) rising in pitch, ending in a louder "pew" sound</t>
-  </si>
-  <si>
     <t>Hoverbugggy</t>
   </si>
   <si>
@@ -310,35 +271,6 @@
     <t>Like a fan. Maybe even a laptop fan</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Soft click. Nothing intrusive, since the player willl hear it a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>A metalllic clink. Slightly more noticeable; this signifies something important happpened in-game.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Danger </t>
   </si>
   <si>
@@ -387,9 +319,6 @@
     <t>https://freesound.org/people/roofusj/sounds/217236/</t>
   </si>
   <si>
-    <t>In the works</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/InspectorJ/sounds/360328/</t>
   </si>
   <si>
@@ -456,12 +385,6 @@
     <t>In consideration</t>
   </si>
   <si>
-    <t>Tooo loud. Fix it you dork.</t>
-  </si>
-  <si>
-    <t>Mouseover click.wav</t>
-  </si>
-  <si>
     <t>From UI/HUD:</t>
   </si>
   <si>
@@ -480,7 +403,303 @@
     <t>TowerControlllerUI</t>
   </si>
   <si>
-    <t>Tooo close to raindrop impacts. How do we rid ourselves of the pittter-pattter?</t>
+    <t>Click2</t>
+  </si>
+  <si>
+    <t>321083__benjaminnelan__wooden-click.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/BenjaminNelan/sounds/321083/</t>
+  </si>
+  <si>
+    <t>405561__inspectorj__wind-realistic-a.wav</t>
+  </si>
+  <si>
+    <t>Wind1.wav</t>
+  </si>
+  <si>
+    <t>Click2.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/405561/</t>
+  </si>
+  <si>
+    <t>Windy wind.wav</t>
+  </si>
+  <si>
+    <t>217186__bosk1__wind-at-door-howling-4.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Bosk1/sounds/217186/</t>
+  </si>
+  <si>
+    <t>Base ambience</t>
+  </si>
+  <si>
+    <t>From the player's base</t>
+  </si>
+  <si>
+    <t>When a rocket platform or misssile budddy fires</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Rain sounds, to be used as part of the level ambience</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Wind sounds, to be used as part of the level ambience</t>
+  </si>
+  <si>
+    <t>&lt;1 minute</t>
+  </si>
+  <si>
+    <t>395841__foxzine__underwater-generator.wav</t>
+  </si>
+  <si>
+    <t>Buzzzhum.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/FoxZine/sounds/395841/</t>
+  </si>
+  <si>
+    <t>Oh no, my looop is poppping</t>
+  </si>
+  <si>
+    <t>I'm okay with it</t>
+  </si>
+  <si>
+    <t>Wind1.wav, Windy wind.wav</t>
+  </si>
+  <si>
+    <t>High wind.wav,
+Low wind.wav</t>
+  </si>
+  <si>
+    <t>Slowdown Start.wav,
+Slowdown Looop.wav</t>
+  </si>
+  <si>
+    <t>Beeepy.mp3</t>
+  </si>
+  <si>
+    <t>363251__josepharaoh99__beeping-robot-or-machine.mp3</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/josepharaoh99/sounds/363251/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/iantm/sounds/439555/</t>
+  </si>
+  <si>
+    <t>439555__iantm__metal-clinks.wav</t>
+  </si>
+  <si>
+    <t>Fructus triangulus.wav</t>
+  </si>
+  <si>
+    <t>243629__lebaston100__heavy-rain.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/lebaston100/sounds/243629/</t>
+  </si>
+  <si>
+    <t>Quieter rain.wav</t>
+  </si>
+  <si>
+    <t>321724__rhodesmas__electric-zap.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/rhodesmas/sounds/321724/</t>
+  </si>
+  <si>
+    <t>That sort of sci-fi hummmy noise. Kinda like what I made for it.</t>
+  </si>
+  <si>
+    <t>Okay, I guesss</t>
+  </si>
+  <si>
+    <t>Mouseover.wav</t>
+  </si>
+  <si>
+    <t>None (generated in Reaper)</t>
+  </si>
+  <si>
+    <t>MousClick.wav</t>
+  </si>
+  <si>
+    <t>Enemy at base</t>
+  </si>
+  <si>
+    <t>When an enemy damages the player base</t>
+  </si>
+  <si>
+    <t>A loud "pew" sound</t>
+  </si>
+  <si>
+    <t>A charge sound (low buzzz) rising in pitch</t>
+  </si>
+  <si>
+    <t>Half a second</t>
+  </si>
+  <si>
+    <t>&lt;1 second</t>
+  </si>
+  <si>
+    <t>500546__waxsocks__heavy-laser-cannon.wav</t>
+  </si>
+  <si>
+    <t>Laser1.wav</t>
+  </si>
+  <si>
+    <t>Laser charge.wav</t>
+  </si>
+  <si>
+    <t>Gunshot + bulllet–metal impact sound</t>
+  </si>
+  <si>
+    <t>Misssile released</t>
+  </si>
+  <si>
+    <t>Smalll explosion. Coincides with the end of rocket/misssile flying sound</t>
+  </si>
+  <si>
+    <t>196914__dpoggioli__laser-gun.wav</t>
+  </si>
+  <si>
+    <t>Laser2.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Dpoggioli/sounds/196914/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/waxsocks/sounds/500546/</t>
+  </si>
+  <si>
+    <t>Bettter than Laser1. I guesss.</t>
+  </si>
+  <si>
+    <t>Enemy charge.wav</t>
+  </si>
+  <si>
+    <t>Base atttack.wav</t>
+  </si>
+  <si>
+    <t>Neeeds some work. Stilll sounds cartooony.</t>
+  </si>
+  <si>
+    <t>On second thought, this sucks.</t>
+  </si>
+  <si>
+    <t>This is is bad</t>
+  </si>
+  <si>
+    <t>I don't like this</t>
+  </si>
+  <si>
+    <t>A click.</t>
+  </si>
+  <si>
+    <t>213384__peridactyloptrix__hover-engine.wav</t>
+  </si>
+  <si>
+    <t>Machinations.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/peridactyloptrix/sounds/213384/</t>
+  </si>
+  <si>
+    <t>Pulsey sound</t>
+  </si>
+  <si>
+    <t>182047__karma-ron__karma-ron-fx-background-drone-spaceship-requested.wav</t>
+  </si>
+  <si>
+    <t>Very basss.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Karma-Ron/sounds/182047/</t>
+  </si>
+  <si>
+    <t>Is very basss</t>
+  </si>
+  <si>
+    <t>382735__schots__gun-shot.aiff</t>
+  </si>
+  <si>
+    <t>Gun.aiff</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/schots/sounds/382735/</t>
+  </si>
+  <si>
+    <t>477832__mattiagiovanetti__some-laser-gun-shots-iv.wav</t>
+  </si>
+  <si>
+    <t>More lasers</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/MattiaGiovanetti/sounds/477832/</t>
+  </si>
+  <si>
+    <t>182273__martian__gun-for-ghose.wav</t>
+  </si>
+  <si>
+    <t>Expl.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/martian/sounds/182273/</t>
+  </si>
+  <si>
+    <t>Is explosion</t>
+  </si>
+  <si>
+    <t>I think it's okay</t>
+  </si>
+  <si>
+    <t>Gun.wav</t>
+  </si>
+  <si>
+    <t>Greeen = done</t>
+  </si>
+  <si>
+    <t>White = didn't start</t>
+  </si>
+  <si>
+    <t>Red = started but never finished</t>
+  </si>
+  <si>
+    <t>Yelllow = done, but want redo</t>
+  </si>
+  <si>
+    <t>No goood</t>
+  </si>
+  <si>
+    <t>Raindrops tooo close. You have a new rain sample; use it!</t>
+  </si>
+  <si>
+    <t>Okay, but not okay</t>
+  </si>
+  <si>
+    <t>484470__inspectorj__bike-chain-spinning-fast-02-01.wav</t>
+  </si>
+  <si>
+    <t>Bike chain.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/484470/</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>Kinda weird. You didn't like this much in retrospect. Unused</t>
+  </si>
+  <si>
+    <t>… Dude. Why'd you get this? It remains unused.</t>
   </si>
 </sst>
 </file>
@@ -504,7 +723,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -512,15 +731,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +757,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -548,44 +771,1380 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFB3B3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -595,10 +2154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,76 +2453,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448648D0-165F-4848-B471-17FE24A35A41}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
     <col min="10" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="19.21875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,10 +2533,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,22 +2550,25 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1015,25 +2576,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1041,418 +2602,498 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>84</v>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1460,9 +3101,25 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="D1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:H36">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$E1="In the works"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>ISNUMBER(SEARCH("Okay",$E1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1470,80 +3127,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DCF25-629D-4A5D-9E8D-68D1CCC55F17}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
+      <c r="A2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="A4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
+      <c r="A5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D21">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("Unused",$D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1551,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2698F854-4098-4A8D-A11D-0BC1B6CA4315}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1559,52 +3419,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>139</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Assset list.xlsx
+++ b/Documentation/Assset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamen\Git repos\Ana\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661484E6-A427-46A8-B2AA-0BC90AA3EDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06AC361-1ACC-4390-B501-916B4D057038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3597E37-93DD-4AB3-B33B-639F315517BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="273">
   <si>
     <t>Music</t>
   </si>
@@ -109,9 +109,6 @@
     <t>When the player places any unit</t>
   </si>
   <si>
-    <t>Sounds of futuristic machine starting up, with a thud (as if it was droppped) to match the smoke efffect created when placing it</t>
-  </si>
-  <si>
     <t>Tower sold</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Cannnon fire</t>
   </si>
   <si>
-    <t>Like a pew sound, but with some low end to sound "grittty"</t>
-  </si>
-  <si>
     <t>1 second</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>1-2 minutes</t>
   </si>
   <si>
-    <t>Rocket fire</t>
-  </si>
-  <si>
     <t>Rumble of rocket flying (no explosion)</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>&lt; 1 second intro, 1 second looop</t>
   </si>
   <si>
-    <t>For each misssile from a misssile barrrage</t>
-  </si>
-  <si>
     <t>Whistling sound of misssiles firing</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>From hovercopters</t>
   </si>
   <si>
-    <t>Like a fan. Maybe even a laptop fan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Danger </t>
   </si>
   <si>
@@ -361,12 +346,6 @@
     <t>For any back buttton, maybe</t>
   </si>
   <si>
-    <t>Not sure yet…</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Menu "back" select</t>
   </si>
   <si>
@@ -376,15 +355,6 @@
     <t>Clicking the Start Wave buttton, maybe</t>
   </si>
   <si>
-    <t>I'm considering giving them unique sounds, but only because I just discovered the</t>
-  </si>
-  <si>
-    <t>game originallly had unique sounds for them. (I hadn't listened to the audio until now.)</t>
-  </si>
-  <si>
-    <t>In consideration</t>
-  </si>
-  <si>
     <t>From UI/HUD:</t>
   </si>
   <si>
@@ -403,9 +373,6 @@
     <t>TowerControlllerUI</t>
   </si>
   <si>
-    <t>Click2</t>
-  </si>
-  <si>
     <t>321083__benjaminnelan__wooden-click.wav</t>
   </si>
   <si>
@@ -439,9 +406,6 @@
     <t>From the player's base</t>
   </si>
   <si>
-    <t>When a rocket platform or misssile budddy fires</t>
-  </si>
-  <si>
     <t>Rain</t>
   </si>
   <si>
@@ -464,9 +428,6 @@
   </si>
   <si>
     <t>https://freesound.org/people/FoxZine/sounds/395841/</t>
-  </si>
-  <si>
-    <t>Oh no, my looop is poppping</t>
   </si>
   <si>
     <t>I'm okay with it</t>
@@ -528,9 +489,6 @@
     <t>None (generated in Reaper)</t>
   </si>
   <si>
-    <t>MousClick.wav</t>
-  </si>
-  <si>
     <t>Enemy at base</t>
   </si>
   <si>
@@ -558,9 +516,6 @@
     <t>Laser charge.wav</t>
   </si>
   <si>
-    <t>Gunshot + bulllet–metal impact sound</t>
-  </si>
-  <si>
     <t>Misssile released</t>
   </si>
   <si>
@@ -588,18 +543,6 @@
     <t>Base atttack.wav</t>
   </si>
   <si>
-    <t>Neeeds some work. Stilll sounds cartooony.</t>
-  </si>
-  <si>
-    <t>On second thought, this sucks.</t>
-  </si>
-  <si>
-    <t>This is is bad</t>
-  </si>
-  <si>
-    <t>I don't like this</t>
-  </si>
-  <si>
     <t>A click.</t>
   </si>
   <si>
@@ -696,10 +639,234 @@
     <t>Unused</t>
   </si>
   <si>
-    <t>Kinda weird. You didn't like this much in retrospect. Unused</t>
-  </si>
-  <si>
     <t>… Dude. Why'd you get this? It remains unused.</t>
+  </si>
+  <si>
+    <t>Buzzz2.wav</t>
+  </si>
+  <si>
+    <t>415873__inspectorj__buzzing-electric-lamp-a.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/415873/</t>
+  </si>
+  <si>
+    <t>Kinda weird. You didn't like this much in retrospect. Unused.</t>
+  </si>
+  <si>
+    <t>Is okay</t>
+  </si>
+  <si>
+    <t>Tank start.wav
+Tank looop.wav</t>
+  </si>
+  <si>
+    <t>60625__robinhood76__00378-metal-pots-1.wav</t>
+  </si>
+  <si>
+    <t>Pots and pans.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Robinhood76/sounds/60625/</t>
+  </si>
+  <si>
+    <t>Raindrops tooo close</t>
+  </si>
+  <si>
+    <t>For each misssile from a misssile arrray</t>
+  </si>
+  <si>
+    <t>Using level theme instead</t>
+  </si>
+  <si>
+    <t>Okay I guesss?</t>
+  </si>
+  <si>
+    <t>Notes, in their own folder</t>
+  </si>
+  <si>
+    <t>Hahaha, notes</t>
+  </si>
+  <si>
+    <t>Using option select instead</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>It's done in Level Theme/Level Ambience</t>
+  </si>
+  <si>
+    <t>Make more?</t>
+  </si>
+  <si>
+    <t>Is goood</t>
+  </si>
+  <si>
+    <t>Thanks, Steven</t>
+  </si>
+  <si>
+    <t>Definitely rain.wav</t>
+  </si>
+  <si>
+    <t>489073__straget__waterfall.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/straget/sounds/489073/</t>
+  </si>
+  <si>
+    <t>Ignore the filename. It's totallly rain.</t>
+  </si>
+  <si>
+    <t>Quieter rain.wav,
+Definitely rain.wav</t>
+  </si>
+  <si>
+    <t>Has metal drop sound for tower build</t>
+  </si>
+  <si>
+    <t>Is okay now</t>
+  </si>
+  <si>
+    <t>Goood pews</t>
+  </si>
+  <si>
+    <t>I guesss I reallly like rising pitches</t>
+  </si>
+  <si>
+    <t>In the works</t>
+  </si>
+  <si>
+    <t>More lasers.wav</t>
+  </si>
+  <si>
+    <t>Plasma shot.wav</t>
+  </si>
+  <si>
+    <t>AAAAAAH I LOVE THIS SOUND
+At least the source sound.</t>
+  </si>
+  <si>
+    <t>Rotor harsh.wav</t>
+  </si>
+  <si>
+    <t>172667__underlineddesigns__military-rotor-loop.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/UnderlinedDesigns/sounds/172667/</t>
+  </si>
+  <si>
+    <t>MouseClick.wav</t>
+  </si>
+  <si>
+    <t>Idle start.wav,
+Idle looop.wav</t>
+  </si>
+  <si>
+    <t>Various beeeps</t>
+  </si>
+  <si>
+    <t>From units, as scatttererer</t>
+  </si>
+  <si>
+    <t>I found some low-bit-depth sounds that I think might sound goood</t>
+  </si>
+  <si>
+    <t>We'lll seee, okay?</t>
+  </si>
+  <si>
+    <t>Beeep1.wav to
+Beeep5.wav</t>
+  </si>
+  <si>
+    <t>Is okay, I think</t>
+  </si>
+  <si>
+    <t>Gunshot</t>
+  </si>
+  <si>
+    <t>From rockets</t>
+  </si>
+  <si>
+    <t>Rocket flire</t>
+  </si>
+  <si>
+    <t>Whistle.wav</t>
+  </si>
+  <si>
+    <t>104551__chimerical__bomb-whistle-long.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/chimerical/sounds/104551/</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Metalllic sounds to represent construction work on the tower.</t>
+  </si>
+  <si>
+    <t>Work1.wav to 
+Work3.wav</t>
+  </si>
+  <si>
+    <t>Rocket flire.wav</t>
+  </si>
+  <si>
+    <t>Brown.wav</t>
+  </si>
+  <si>
+    <t>3941__noisecollector__brown-noise.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/NoiseCollector/sounds/3941/</t>
+  </si>
+  <si>
+    <t>Expl.wav,
+Very basss.wav,
+Misssile whistle</t>
+  </si>
+  <si>
+    <t>Misssile whistle.wav</t>
+  </si>
+  <si>
+    <t>Whistle.wav
+Brown.wav</t>
+  </si>
+  <si>
+    <t>Seeems okay</t>
+  </si>
+  <si>
+    <t>Rocket impact.wav</t>
+  </si>
+  <si>
+    <t>Sounds goood I think</t>
+  </si>
+  <si>
+    <t>No, rotor sounds.</t>
+  </si>
+  <si>
+    <t>Is this okay?</t>
+  </si>
+  <si>
+    <t>Chopppercopter.wav
+Coppper chapter.wav</t>
+  </si>
+  <si>
+    <t>Brown.wav,
+Rotor harsh.wav</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>Let me hear you hum.flac</t>
+  </si>
+  <si>
+    <t>169859__timbre__low-pulsating-hum.flac</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Timbre/sounds/169859/</t>
   </si>
 </sst>
 </file>
@@ -723,16 +890,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -791,9 +958,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -812,6 +979,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -822,39 +995,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="32">
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
@@ -863,55 +1024,14 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -939,6 +1059,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -968,30 +1112,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1019,6 +1139,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -1045,33 +1189,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1099,6 +1223,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -1128,30 +1276,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1179,6 +1303,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -1205,33 +1353,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1259,11 +1387,35 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="-0.24994659260841701"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
       <border>
@@ -1291,11 +1443,59 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
       <border>
@@ -1341,37 +1541,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
@@ -1391,9 +1561,39 @@
         <bottom style="thin">
           <color theme="7" tint="-0.24994659260841701"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1421,37 +1621,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
@@ -1470,594 +1640,6 @@
         </top>
         <bottom style="thin">
           <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -2070,69 +1652,19 @@
           <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
       <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -2453,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448648D0-165F-4848-B471-17FE24A35A41}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2465,24 +1997,24 @@
     <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
     <col min="10" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="19.21875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2504,23 +2036,23 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2533,10 +2065,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2550,25 +2085,37 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2576,22 +2123,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2602,188 +2149,184 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17"/>
+        <v>91</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2793,307 +2336,405 @@
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
-      </c>
-      <c r="F25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>71</v>
+      <c r="C37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3104,20 +2745,36 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:H36">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="A11:H37 A1:H3 A5:H8">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$E1="In the works"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>ISNUMBER(SEARCH("Okay",$E1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>OR(ISNUMBER(SEARCH("Okay",$E1)),ISNUMBER(SEARCH("Goood",$E1)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)))</formula>
+  <conditionalFormatting sqref="H1:H3 H5:H8 H11:H1048576">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)),ISNUMBER(SEARCH("Abandoned",$E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:D10 F9:H10 A4:D4 F4:H4">
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>$H4="In the works"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$H4)),ISNUMBER(SEARCH("Bad",$H4)),ISNUMBER(SEARCH("Not goood",$H4)),ISNUMBER(SEARCH("No goood",$H4)),ISNUMBER(SEARCH("Not okay",$H4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>ISNUMBER(SEARCH("Okay",$H4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:H37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$E4="Abandoned"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,281 +2784,376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DCF25-629D-4A5D-9E8D-68D1CCC55F17}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.33203125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="M1" s="13" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,'Assset list'!$G$4:'Assset list'!$G$41)</f>
+        <v>Notes, in their own folder|None (generated in Reaper)|Click2.wav|Quieter rain.wav,
+Definitely rain.wav|Wind1.wav, Windy wind.wav|Th-f-thunder.wav|Pots and pans.wav|Beeepy.mp3|Machinations.wav|Gun.aiff|Expl.wav,
+Very basss.wav,
+Misssile whistle|Expl.wav|Laser2.wav|Buzzzhum.wav|Whistle.wav
+Brown.wav|Laser charge.wav|More lasers.wav|Bike chain.wav|Brown.wav,
+Rotor harsh.wav</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D4" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C12" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="D18" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="C19" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>217</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D21">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISNUMBER(SEARCH("Unused",$D1))</formula>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A1&lt;&gt;"",$A1&lt;&gt;"Filename",NOT(ISNUMBER(SEARCH($A1,$M$1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,66 +3166,66 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>99</v>
+      <c r="A4" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>117</v>
+      <c r="A5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>120</v>
+      <c r="B6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>119</v>
+      <c r="B7" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>121</v>
+      <c r="B8" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Assset list.xlsx
+++ b/Documentation/Assset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamen\Git repos\Ana\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06AC361-1ACC-4390-B501-916B4D057038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DE540-4830-44B7-8673-E3E629FF11A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3597E37-93DD-4AB3-B33B-639F315517BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="292">
   <si>
     <t>Music</t>
   </si>
@@ -196,13 +196,7 @@
     <t>Higher ding, instance-specific parameter to make it louder for actions with more energy gain</t>
   </si>
   <si>
-    <t>Tower upgrade</t>
-  </si>
-  <si>
     <t>Very subtle efffect that can hopefullly be noticed when it starts and stops only; a buzzz/hum of machines runnning. Parametrised to rise in pitch for Tier 2 or 3 towers</t>
-  </si>
-  <si>
-    <t>When a tower is upgraded</t>
   </si>
   <si>
     <t>1-2 seconds</t>
@@ -453,12 +447,6 @@
     <t>https://freesound.org/people/josepharaoh99/sounds/363251/</t>
   </si>
   <si>
-    <t>https://freesound.org/people/iantm/sounds/439555/</t>
-  </si>
-  <si>
-    <t>439555__iantm__metal-clinks.wav</t>
-  </si>
-  <si>
     <t>Fructus triangulus.wav</t>
   </si>
   <si>
@@ -616,9 +604,6 @@
   </si>
   <si>
     <t>Yelllow = done, but want redo</t>
-  </si>
-  <si>
-    <t>No goood</t>
   </si>
   <si>
     <t>Raindrops tooo close. You have a new rain sample; use it!</t>
@@ -734,9 +719,6 @@
     <t>I guesss I reallly like rising pitches</t>
   </si>
   <si>
-    <t>In the works</t>
-  </si>
-  <si>
     <t>More lasers.wav</t>
   </si>
   <si>
@@ -801,13 +783,6 @@
   </si>
   <si>
     <t>Okay</t>
-  </si>
-  <si>
-    <t>Metalllic sounds to represent construction work on the tower.</t>
-  </si>
-  <si>
-    <t>Work1.wav to 
-Work3.wav</t>
   </si>
   <si>
     <t>Rocket flire.wav</t>
@@ -827,9 +802,6 @@
 Misssile whistle</t>
   </si>
   <si>
-    <t>Misssile whistle.wav</t>
-  </si>
-  <si>
     <t>Whistle.wav
 Brown.wav</t>
   </si>
@@ -867,13 +839,124 @@
   </si>
   <si>
     <t>https://freesound.org/people/Timbre/sounds/169859/</t>
+  </si>
+  <si>
+    <t>Okay, I guesss?</t>
+  </si>
+  <si>
+    <t>Whir.wav
+Hum.wav (hah)</t>
+  </si>
+  <si>
+    <t>Let me hear you hum.flac, Brown.wav</t>
+  </si>
+  <si>
+    <t>I did it! It's okay now</t>
+  </si>
+  <si>
+    <t>Mistle whisssile.wav</t>
+  </si>
+  <si>
+    <t>Tower upgrade 1</t>
+  </si>
+  <si>
+    <t>Tower upgrade 2</t>
+  </si>
+  <si>
+    <t>When a tower is upgraded to level 2</t>
+  </si>
+  <si>
+    <t>When a tower is upgraded to level 3</t>
+  </si>
+  <si>
+    <t>I like it</t>
+  </si>
+  <si>
+    <t>I think it's goood</t>
+  </si>
+  <si>
+    <t>Tower Boost</t>
+  </si>
+  <si>
+    <t>Metalllic sounds to represent construction work on the tower, and also machiney starty sound.</t>
+  </si>
+  <si>
+    <t>Work1.wav to 
+Work3.wav,
+Tower booot.wav</t>
+  </si>
+  <si>
+    <t>2 seconds until explosion</t>
+  </si>
+  <si>
+    <t>Alarm.wav</t>
+  </si>
+  <si>
+    <t>361247__japanyoshithegamer__sci-fi-warning-beep.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/JapanYoshiTheGamer/sounds/361247/</t>
+  </si>
+  <si>
+    <t>Misssile Exception.wav</t>
+  </si>
+  <si>
+    <t>Expl.wav
+Alarm.wav</t>
+  </si>
+  <si>
+    <t>IDK</t>
+  </si>
+  <si>
+    <t>Tringle.wav</t>
+  </si>
+  <si>
+    <t>468752__brunoboselli__triangle.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/brunoboselli/sounds/468752/</t>
+  </si>
+  <si>
+    <t>Fructus triangulus?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For something that's not even funnny, this joke is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>awfullly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> old.</t>
+    </r>
+  </si>
+  <si>
+    <t>Is it okay?</t>
+  </si>
+  <si>
+    <t>Currrency Gain.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +983,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -985,6 +1083,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -999,12 +1103,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,80 +1130,6 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1363,6 +1387,12 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1434,6 +1464,16 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1514,6 +1554,16 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1985,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448648D0-165F-4848-B471-17FE24A35A41}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1997,7 +2047,7 @@
     <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" style="1" customWidth="1"/>
@@ -2008,13 +2058,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2036,23 +2086,23 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2068,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2088,32 +2138,32 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2123,22 +2173,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2149,119 +2199,119 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -2272,63 +2322,63 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -2336,42 +2386,42 @@
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2382,19 +2432,19 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2416,30 +2466,30 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
@@ -2448,13 +2498,13 @@
         <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2465,19 +2515,19 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2488,22 +2538,22 @@
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2520,24 +2570,24 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -2546,16 +2596,16 @@
         <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2566,7 +2616,19 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>278</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2596,145 +2658,183 @@
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>268</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2745,36 +2845,57 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:H37 A1:H3 A5:H8">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="A11:H30 A1:H3 A5:H8 A32:H38">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$E1="In the works"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>OR(ISNUMBER(SEARCH("Okay",$E1)),ISNUMBER(SEARCH("Goood",$E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H3 H5:H8 H11:H1048576">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="H1:H3 H5:H8 H11:H30 H32:H1048576">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)),ISNUMBER(SEARCH("Abandoned",$E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:D10 F9:H10 A4:D4 F4:H4">
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>$H4="In the works"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$H4)),ISNUMBER(SEARCH("Bad",$H4)),ISNUMBER(SEARCH("Not goood",$H4)),ISNUMBER(SEARCH("No goood",$H4)),ISNUMBER(SEARCH("Not okay",$H4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>ISNUMBER(SEARCH("Okay",$H4))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:H37">
+  <conditionalFormatting sqref="A4:H30 A32:H38">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$E4="Abandoned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:H31">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$E31="In the works"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$E31)),ISNUMBER(SEARCH("Bad",$E31)),ISNUMBER(SEARCH("Not goood",$E31)),ISNUMBER(SEARCH("No goood",$E31)),ISNUMBER(SEARCH("Not okay",$E31)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>OR(ISNUMBER(SEARCH("Okay",$E31)),ISNUMBER(SEARCH("Goood",$E31)),ISNUMBER(SEARCH("I like it",$E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$E31)),ISNUMBER(SEARCH("Bad",$E31)),ISNUMBER(SEARCH("Not goood",$E31)),ISNUMBER(SEARCH("No goood",$E31)),ISNUMBER(SEARCH("Not okay",$E31)),ISNUMBER(SEARCH("Abandoned",$E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:H31">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$E4="Abandoned"</formula>
+      <formula>$E31="Abandoned"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DCF25-629D-4A5D-9E8D-68D1CCC55F17}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2804,139 +2925,140 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="M1" s="13" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,'Assset list'!$G$4:'Assset list'!$G$41)</f>
+      <c r="M1" s="8" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,'Assset list'!$G$4:'Assset list'!$G$42)</f>
         <v>Notes, in their own folder|None (generated in Reaper)|Click2.wav|Quieter rain.wav,
 Definitely rain.wav|Wind1.wav, Windy wind.wav|Th-f-thunder.wav|Pots and pans.wav|Beeepy.mp3|Machinations.wav|Gun.aiff|Expl.wav,
 Very basss.wav,
 Misssile whistle|Expl.wav|Laser2.wav|Buzzzhum.wav|Whistle.wav
-Brown.wav|Laser charge.wav|More lasers.wav|Bike chain.wav|Brown.wav,
+Brown.wav|Expl.wav
+Alarm.wav|Tringle.wav|Laser charge.wav|More lasers.wav|Let me hear you hum.flac, Brown.wav|Bike chain.wav|Brown.wav,
 Rotor harsh.wav</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>210</v>
+      <c r="D4" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>138</v>
@@ -2944,27 +3066,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>142</v>
+      <c r="D12" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2972,24 +3094,27 @@
         <v>158</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -3008,7 +3133,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>173</v>
@@ -3017,54 +3142,51 @@
         <v>175</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>198</v>
@@ -3072,82 +3194,93 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2698F854-4098-4A8D-A11D-0BC1B6CA4315}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3178,54 +3311,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3234,5 +3377,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Assset list.xlsx
+++ b/Documentation/Assset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamen\Git repos\Ana\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DE540-4830-44B7-8673-E3E629FF11A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBAB5FC-2BB2-4CF9-B03A-7869BE932A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3597E37-93DD-4AB3-B33B-639F315517BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="310">
   <si>
     <t>Music</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Tower placed</t>
   </si>
   <si>
-    <t>When the player places any unit</t>
-  </si>
-  <si>
     <t>Tower sold</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>When an enemy destroys a tower</t>
-  </si>
-  <si>
-    <t>Another machine startup sound to acccompany "Tower idle" changing</t>
   </si>
   <si>
     <t>Similar to "Misssile sepppuku", but machines turn offf more sudddenly</t>
@@ -561,9 +555,6 @@
     <t>382735__schots__gun-shot.aiff</t>
   </si>
   <si>
-    <t>Gun.aiff</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/schots/sounds/382735/</t>
   </si>
   <si>
@@ -589,9 +580,6 @@
   </si>
   <si>
     <t>I think it's okay</t>
-  </si>
-  <si>
-    <t>Gun.wav</t>
   </si>
   <si>
     <t>Greeen = done</t>
@@ -748,9 +736,6 @@
     <t>Various beeeps</t>
   </si>
   <si>
-    <t>From units, as scatttererer</t>
-  </si>
-  <si>
     <t>I found some low-bit-depth sounds that I think might sound goood</t>
   </si>
   <si>
@@ -759,9 +744,6 @@
   <si>
     <t>Beeep1.wav to
 Beeep5.wav</t>
-  </si>
-  <si>
-    <t>Is okay, I think</t>
   </si>
   <si>
     <t>Gunshot</t>
@@ -873,17 +855,6 @@
   </si>
   <si>
     <t>I think it's goood</t>
-  </si>
-  <si>
-    <t>Tower Boost</t>
-  </si>
-  <si>
-    <t>Metalllic sounds to represent construction work on the tower, and also machiney starty sound.</t>
-  </si>
-  <si>
-    <t>Work1.wav to 
-Work3.wav,
-Tower booot.wav</t>
   </si>
   <si>
     <t>2 seconds until explosion</t>
@@ -946,17 +917,101 @@
     </r>
   </si>
   <si>
-    <t>Is it okay?</t>
-  </si>
-  <si>
     <t>Currrency Gain.wav</t>
+  </si>
+  <si>
+    <t>Gun2.mp3</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/coolguy244e/sounds/266915/</t>
+  </si>
+  <si>
+    <t>266915__coolguy244e__door-slam-gun-shot.mp3</t>
+  </si>
+  <si>
+    <t>Tower Booost 2.wav</t>
+  </si>
+  <si>
+    <t>Tower Booost 1.wav</t>
+  </si>
+  <si>
+    <t>Part of base ambience</t>
+  </si>
+  <si>
+    <t>I guesss it's okay?</t>
+  </si>
+  <si>
+    <t>Metalllic clinky noises</t>
+  </si>
+  <si>
+    <t>Metalllic sounds to represent construction work on the tower</t>
+  </si>
+  <si>
+    <t>Work1.wav to 
+Work3.wav</t>
+  </si>
+  <si>
+    <t>When the player places a tower</t>
+  </si>
+  <si>
+    <t>When the player places a tower, and also in bas ambience</t>
+  </si>
+  <si>
+    <t>Computery booot up sound</t>
+  </si>
+  <si>
+    <t>Tower booot.wav</t>
+  </si>
+  <si>
+    <t>ReaSynth</t>
+  </si>
+  <si>
+    <t>Computery sounds of rising pitch</t>
+  </si>
+  <si>
+    <t>Computery sounds of more dramatic rising pitch</t>
+  </si>
+  <si>
+    <t>ReaSynth,
+Machinations.wav</t>
+  </si>
+  <si>
+    <t>ReaSynth, Machinations.wav</t>
+  </si>
+  <si>
+    <t>You said the persistent tower noises were a bit tooo much.</t>
+  </si>
+  <si>
+    <t>I didn't make it as subtle as wanted.</t>
+  </si>
+  <si>
+    <t>Then I gave up.</t>
+  </si>
+  <si>
+    <t>Cannnonfire.wav</t>
+  </si>
+  <si>
+    <t>Gun.aiff</t>
+  </si>
+  <si>
+    <t>Seeemed like a goood idea at the time</t>
+  </si>
+  <si>
+    <t>Tower offfed.wav</t>
+  </si>
+  <si>
+    <t>ReaSynth,
+Expl.wav</t>
+  </si>
+  <si>
+    <t>Tower offf.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,13 +1038,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1109,7 +1157,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1120,366 +1168,6 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2035,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448648D0-165F-4848-B471-17FE24A35A41}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,7 +1739,7 @@
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="19.21875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
@@ -2059,7 +1747,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -2086,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
@@ -2115,13 +1803,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2135,22 +1823,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2173,22 +1861,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2199,50 +1887,50 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2259,582 +1947,650 @@
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
         <v>212</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" t="s">
-        <v>225</v>
+      <c r="F34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>224</v>
-      </c>
-      <c r="F35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2842,60 +2598,50 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:H30 A1:H3 A5:H8 A32:H38">
-    <cfRule type="expression" dxfId="13" priority="7">
+  <conditionalFormatting sqref="A1:H3 A5:H8 A11:H20 A22:H39">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$E1="In the works"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>OR(ISNUMBER(SEARCH("Okay",$E1)),ISNUMBER(SEARCH("Goood",$E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H3 H5:H8 H11:H30 H32:H1048576">
-    <cfRule type="expression" dxfId="10" priority="12">
+  <conditionalFormatting sqref="H1:H3 H5:H8 H11:H1048576">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$E1)),ISNUMBER(SEARCH("Bad",$E1)),ISNUMBER(SEARCH("Not goood",$E1)),ISNUMBER(SEARCH("No goood",$E1)),ISNUMBER(SEARCH("Not okay",$E1)),ISNUMBER(SEARCH("Abandoned",$E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:D10 F9:H10 A4:D4 F4:H4">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$H4="In the works"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>OR(ISNUMBER(SEARCH("Don't like",$H4)),ISNUMBER(SEARCH("Bad",$H4)),ISNUMBER(SEARCH("Not goood",$H4)),ISNUMBER(SEARCH("No goood",$H4)),ISNUMBER(SEARCH("Not okay",$H4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>ISNUMBER(SEARCH("Okay",$H4))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:H30 A32:H38">
-    <cfRule type="expression" dxfId="6" priority="6">
+  <conditionalFormatting sqref="A4:H39">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$E4="Abandoned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:H31">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$E31="In the works"</formula>
+  <conditionalFormatting sqref="A21:H21">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$E21="In the works"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>OR(ISNUMBER(SEARCH("Don't like",$E31)),ISNUMBER(SEARCH("Bad",$E31)),ISNUMBER(SEARCH("Not goood",$E31)),ISNUMBER(SEARCH("No goood",$E31)),ISNUMBER(SEARCH("Not okay",$E31)))</formula>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR(ISNUMBER(SEARCH("Don't like",$E21)),ISNUMBER(SEARCH("Bad",$E21)),ISNUMBER(SEARCH("Not goood",$E21)),ISNUMBER(SEARCH("No goood",$E21)),ISNUMBER(SEARCH("Not okay",$E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>OR(ISNUMBER(SEARCH("Okay",$E31)),ISNUMBER(SEARCH("Goood",$E31)),ISNUMBER(SEARCH("I like it",$E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>OR(ISNUMBER(SEARCH("Don't like",$E31)),ISNUMBER(SEARCH("Bad",$E31)),ISNUMBER(SEARCH("Not goood",$E31)),ISNUMBER(SEARCH("No goood",$E31)),ISNUMBER(SEARCH("Not okay",$E31)),ISNUMBER(SEARCH("Abandoned",$E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:H31">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$E31="Abandoned"</formula>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>OR(ISNUMBER(SEARCH("Okay",$E21)),ISNUMBER(SEARCH("Goood",$E21)),ISNUMBER(SEARCH("I like it",$E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2905,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DCF25-629D-4A5D-9E8D-68D1CCC55F17}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2925,362 +2671,389 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="7"/>
       <c r="M1" s="8" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,'Assset list'!$G$4:'Assset list'!$G$42)</f>
+        <f>_xlfn.TEXTJOIN("|",TRUE,'Assset list'!$G$4:'Assset list'!$G$43)</f>
         <v>Notes, in their own folder|None (generated in Reaper)|Click2.wav|Quieter rain.wav,
-Definitely rain.wav|Wind1.wav, Windy wind.wav|Th-f-thunder.wav|Pots and pans.wav|Beeepy.mp3|Machinations.wav|Gun.aiff|Expl.wav,
+Definitely rain.wav|Wind1.wav, Windy wind.wav|Machinations.wav|Beeepy.mp3|Th-f-thunder.wav|Pots and pans.wav|ReaSynth|ReaSynth,
+Machinations.wav|ReaSynth, Machinations.wav|ReaSynth|Gun2.mp3|Expl.wav,
 Very basss.wav,
 Misssile whistle|Expl.wav|Laser2.wav|Buzzzhum.wav|Whistle.wav
 Brown.wav|Expl.wav
-Alarm.wav|Tringle.wav|Laser charge.wav|More lasers.wav|Let me hear you hum.flac, Brown.wav|Bike chain.wav|Brown.wav,
+Alarm.wav|Tringle.wav|ReaSynth,
+Expl.wav|Laser charge.wav|More lasers.wav|Let me hear you hum.flac, Brown.wav|Bike chain.wav|Brown.wav,
 Rotor harsh.wav</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>205</v>
+        <v>81</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3085,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3322,7 +3095,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3332,43 +3105,43 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
